--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H2">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I2">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J2">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N2">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O2">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P2">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q2">
-        <v>148.7587914076258</v>
+        <v>2.405704370286778</v>
       </c>
       <c r="R2">
-        <v>1338.829122668632</v>
+        <v>21.651339332581</v>
       </c>
       <c r="S2">
-        <v>0.0004030992021077426</v>
+        <v>1.111126859873948E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004030992021077425</v>
+        <v>1.111126859873948E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H3">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I3">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J3">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q3">
-        <v>153.9202409017155</v>
+        <v>28.70794545559889</v>
       </c>
       <c r="R3">
-        <v>1385.28216811544</v>
+        <v>258.37150910039</v>
       </c>
       <c r="S3">
-        <v>0.0004170854422021908</v>
+        <v>0.0001325938867696768</v>
       </c>
       <c r="T3">
-        <v>0.0004170854422021908</v>
+        <v>0.0001325938867696768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H4">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I4">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J4">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P4">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q4">
-        <v>26.37222335752977</v>
+        <v>4.918731579781444</v>
       </c>
       <c r="R4">
-        <v>237.350010217768</v>
+        <v>44.268584218033</v>
       </c>
       <c r="S4">
-        <v>7.146214413706558E-05</v>
+        <v>2.271823106075944E-05</v>
       </c>
       <c r="T4">
-        <v>7.146214413706555E-05</v>
+        <v>2.271823106075944E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J5">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N5">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O5">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P5">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q5">
-        <v>163839.7344352716</v>
+        <v>14206.02168383165</v>
       </c>
       <c r="R5">
-        <v>1474557.609917445</v>
+        <v>127854.1951544848</v>
       </c>
       <c r="S5">
-        <v>0.4439647942784837</v>
+        <v>0.06561359932590315</v>
       </c>
       <c r="T5">
-        <v>0.4439647942784835</v>
+        <v>0.06561359932590315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I6">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J6">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.80431</v>
       </c>
       <c r="O6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q6">
         <v>169524.4439331829</v>
@@ -818,10 +818,10 @@
         <v>1525719.995398646</v>
       </c>
       <c r="S6">
-        <v>0.4593689384042801</v>
+        <v>0.7829854964136779</v>
       </c>
       <c r="T6">
-        <v>0.4593689384042799</v>
+        <v>0.782985496413678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I7">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J7">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.960057</v>
       </c>
       <c r="O7">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P7">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q7">
         <v>29045.79978419917</v>
@@ -880,10 +880,10 @@
         <v>261412.1980577925</v>
       </c>
       <c r="S7">
-        <v>0.07870686906502879</v>
+        <v>0.1341543404308543</v>
       </c>
       <c r="T7">
-        <v>0.07870686906502875</v>
+        <v>0.1341543404308543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>379.873909</v>
       </c>
       <c r="I8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N8">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O8">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P8">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q8">
-        <v>2847.515532711066</v>
+        <v>246.8990049463379</v>
       </c>
       <c r="R8">
-        <v>25627.63979439959</v>
+        <v>2222.091044517041</v>
       </c>
       <c r="S8">
-        <v>0.007716056499006978</v>
+        <v>0.00114035672653878</v>
       </c>
       <c r="T8">
-        <v>0.007716056499006974</v>
+        <v>0.00114035672653878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>379.873909</v>
       </c>
       <c r="I9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>69.80431</v>
       </c>
       <c r="O9">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P9">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q9">
         <v>2946.315122749755</v>
@@ -1004,10 +1004,10 @@
         <v>26516.83610474779</v>
       </c>
       <c r="S9">
-        <v>0.007983778732673405</v>
+        <v>0.01360819687977624</v>
       </c>
       <c r="T9">
-        <v>0.007983778732673402</v>
+        <v>0.01360819687977624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>379.873909</v>
       </c>
       <c r="I10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.960057</v>
       </c>
       <c r="O10">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P10">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q10">
         <v>504.8126227169792</v>
@@ -1066,10 +1066,10 @@
         <v>4543.313604452813</v>
       </c>
       <c r="S10">
-        <v>0.001367916232080249</v>
+        <v>0.002331586836820621</v>
       </c>
       <c r="T10">
-        <v>0.001367916232080249</v>
+        <v>0.002331586836820621</v>
       </c>
     </row>
   </sheetData>
